--- a/translated.xlsx
+++ b/translated.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>name</t>
+    <t>编号</t>
   </si>
   <si>
-    <t>编号</t>
+    <t>教师姓名</t>
   </si>
   <si>
     <t>年龄</t>
@@ -35,10 +35,10 @@
     <t>地址</t>
   </si>
   <si>
-    <t>刘雅妮</t>
+    <t>1002</t>
   </si>
   <si>
-    <t>1002</t>
+    <t>刘雅妮</t>
   </si>
   <si>
     <t>21</t>
